--- a/biology/Médecine/1723_en_santé_et_médecine/1723_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1723_en_santé_et_médecine/1723_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1723_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1723_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1723 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1723_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1723_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La fièvre jaune est signalée à Lisbonne, pour la première fois en Europe[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La fièvre jaune est signalée à Lisbonne, pour la première fois en Europe.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1723_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1723_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin anglais James Jurin publie ses premiers résultats d’épidémiologie sur les bénéfices de la variolisation dans une série d’articles intitulés « An Account of the Success of Inoculating the Small-Pox »[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin anglais James Jurin publie ses premiers résultats d’épidémiologie sur les bénéfices de la variolisation dans une série d’articles intitulés « An Account of the Success of Inoculating the Small-Pox ».</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1723_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1723_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +587,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 juin (baptême) : Giovanni Antonio Scopoli (mort en 1788), médecin, entomologiste et naturaliste italien[3].
-23 août : Gabriel François Venel (mort en 1775), médecin, pharmacien et chimiste français[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 juin (baptême) : Giovanni Antonio Scopoli (mort en 1788), médecin, entomologiste et naturaliste italien.
+23 août : Gabriel François Venel (mort en 1775), médecin, pharmacien et chimiste français.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1723_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1723_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,9 +620,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26 août : mort du drapier Antoni van Leeuwenhoek (né en 1632), pionnier néerlandais de l’utilisation du microscope[5].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 août : mort du drapier Antoni van Leeuwenhoek (né en 1632), pionnier néerlandais de l’utilisation du microscope.</t>
         </is>
       </c>
     </row>
